--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>974571.6224392881</v>
+        <v>977891.1687121931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,19 +792,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>24.5537323853639</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,61 +1136,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>93.47465098669151</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>105.3690580549763</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,61 +1367,61 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>17.82923804496935</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8.172609644471923</v>
       </c>
     </row>
     <row r="13">
@@ -1616,55 +1616,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>143.1098930513363</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="16">
@@ -1841,70 +1841,70 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>53.65889244710058</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>62.2924444867011</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,19 +2327,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>170.2465472495006</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>128.7503202017071</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>46.86303789577813</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,26 +2789,26 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>51.84843584571486</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>56.17030901074575</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>112.9995969463466</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.79900896488251</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>45.76937707216953</v>
       </c>
     </row>
     <row r="34">
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>148.5029190010153</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.44924514251336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,28 +3503,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>74.116572556561</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>70.52904586619735</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,23 +3743,23 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.565027066663822</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,23 +3974,23 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>13.9434706946005</v>
+        <v>12.91814281012252</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4334,7 +4334,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4352,28 +4352,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>236.1051990630351</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>238.8736563016672</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>31.27987404077794</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>31.27987404077794</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X3" t="n">
-        <v>31.27987404077794</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.27987404077794</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4544,25 +4544,25 @@
         <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D5" t="n">
         <v>199.2900309704538</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4574,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C6" t="n">
-        <v>271.8092291910373</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D6" t="n">
-        <v>122.874819529786</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,10 +4653,10 @@
         <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,7 +4811,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245.4718821152904</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C9" t="n">
-        <v>245.4718821152904</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D9" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>245.4718821152904</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4887,10 +4887,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
         <v>639.4279001397708</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>453.0656643761797</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>453.0656643761797</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>453.0656643761797</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>245.4718821152904</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>245.4718821152904</v>
+        <v>715.637985778398</v>
       </c>
       <c r="Y9" t="n">
-        <v>245.4718821152904</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="10">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5051,7 +5051,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.8736563016672</v>
+        <v>645.6008794760112</v>
       </c>
       <c r="C12" t="n">
-        <v>238.8736563016672</v>
+        <v>471.1478501948842</v>
       </c>
       <c r="D12" t="n">
-        <v>238.8736563016672</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E12" t="n">
-        <v>238.8736563016672</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F12" t="n">
-        <v>238.8736563016672</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5145,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>238.8736563016672</v>
+        <v>813.8162164960793</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5288,40 +5288,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5358,16 +5358,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5391,16 +5391,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W15" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X15" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y15" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="W15" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X15" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>508.2152912359765</v>
+        <v>592.2056662008901</v>
       </c>
       <c r="C21" t="n">
-        <v>508.2152912359765</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D21" t="n">
-        <v>508.2152912359765</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
         <v>109.5807722530562</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>508.2152912359765</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>508.2152912359765</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>508.2152912359765</v>
+        <v>799.965964965844</v>
       </c>
       <c r="Y21" t="n">
-        <v>508.2152912359765</v>
+        <v>592.2056662008901</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="G23" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J23" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>361.6807332628614</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C24" t="n">
-        <v>361.6807332628614</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D24" t="n">
-        <v>361.6807332628614</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E24" t="n">
-        <v>361.6807332628614</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>792.0909461677063</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>589.9043515264723</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>361.6807332628614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>361.6807332628614</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>361.6807332628614</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>361.6807332628614</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.6807332628614</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6178,10 +6178,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.6713068207694</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C27" t="n">
-        <v>157.6713068207694</v>
+        <v>492.48569440222</v>
       </c>
       <c r="D27" t="n">
-        <v>157.6713068207694</v>
+        <v>492.48569440222</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6713068207694</v>
+        <v>492.48569440222</v>
       </c>
       <c r="F27" t="n">
-        <v>157.6713068207694</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>157.6713068207694</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
         <v>110.334904905842</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X27" t="n">
-        <v>533.6469426057913</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.8866438408374</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6403,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,22 +6482,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
         <v>20.03527576299844</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>679.0958513775852</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6652,19 +6652,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>358.0940480307835</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>358.0940480307835</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>358.0940480307835</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>358.0940480307835</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>358.0940480307835</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>358.0940480307835</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X32" t="n">
-        <v>358.0940480307835</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.0940480307835</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6965,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>502.6601697108322</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C36" t="n">
-        <v>328.2071404297052</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>670.8755067309003</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7117,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>243.8349102288568</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C39" t="n">
         <v>168.9696854242497</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>243.8349102288568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>243.8349102288568</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y39" t="n">
-        <v>243.8349102288568</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="40">
@@ -7354,19 +7354,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7391,19 +7391,19 @@
         <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="E41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="F41" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="H41" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="F41" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="G41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,19 +7439,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
         <v>614.4775954922324</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,16 +7494,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X42" t="n">
-        <v>199.2900309704538</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7588,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7655,10 +7655,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
         <v>17.19556020784815</v>
@@ -7731,16 +7731,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V45" t="n">
-        <v>31.27987404077794</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>31.27987404077794</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X45" t="n">
-        <v>31.27987404077794</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
         <v>16.44142755506243</v>
@@ -7822,34 +7822,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8222,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,13 +8301,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,10 +8459,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8699,10 +8699,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,13 +8781,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9255,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10446,7 +10446,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,13 +11069,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,7 +11154,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,10 +11388,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,13 +22562,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>49.93994077416525</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.843121629009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22680,19 +22680,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>85.63262347080878</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,13 +22784,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>52.27602240042461</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,13 +22878,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>87.68171185113256</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,7 +23024,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23036,13 +23036,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,10 +23075,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>158.68143044351</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23112,13 +23112,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>106.6900777081301</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>100.4039271485011</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>119.5142791182413</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,13 +23385,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>197.5100861328324</v>
       </c>
     </row>
     <row r="13">
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,13 +23580,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>14.53518740406463</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23631,16 +23631,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.66257839606692</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,7 +23738,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23747,13 +23747,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979769</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>179.1416947023247</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>143.4805407167764</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>87.28582189465754</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>1.436623854337228</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24418,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,10 +24449,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24491,25 +24491,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,13 +24531,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>16.31889219167681</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>65.37240634071833</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,13 +24643,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,10 +24771,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>85.49508131749577</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>176.6302781386795</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>226.4752051694205</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>70.35882518776062</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>159.9133187051348</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25205,22 +25205,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>18.03026464885201</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,7 +25290,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>148.233450634791</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25391,28 +25391,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>188.9293852055442</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>98.59192643175474</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>135.2439393372801</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,22 +25631,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25679,7 +25679,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.9681565832035</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>85.67090042127307</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25773,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>213.6630136368557</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25992,25 +25992,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>191.7392250827039</v>
+        <v>192.7645529671819</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>15.96843579630766</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402281.986679076</v>
+        <v>402281.9866790762</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402281.9866790759</v>
+        <v>402281.986679076</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402281.9866790762</v>
+        <v>402281.9866790759</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402281.986679076</v>
+        <v>402281.9866790759</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423709.7149548979</v>
+        <v>423709.714954898</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423709.7149548979</v>
+        <v>423709.714954898</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423709.7149548981</v>
+        <v>423709.714954898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423709.7149548979</v>
+        <v>423709.7149548981</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402281.9866790762</v>
+        <v>402281.986679076</v>
       </c>
     </row>
   </sheetData>
@@ -26326,7 +26326,7 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
         <v>157852.6389047657</v>
@@ -26338,13 +26338,13 @@
         <v>157852.6389047657</v>
       </c>
       <c r="K2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="L2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="M2" t="n">
-        <v>157852.6389047657</v>
       </c>
       <c r="N2" t="n">
         <v>157852.6389047657</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34331.46524182808</v>
+        <v>34719.10666071447</v>
       </c>
       <c r="C6" t="n">
-        <v>103205.221823518</v>
+        <v>103592.8632424043</v>
       </c>
       <c r="D6" t="n">
-        <v>103205.221823518</v>
+        <v>103592.8632424043</v>
       </c>
       <c r="E6" t="n">
-        <v>136832.8218235179</v>
+        <v>137220.4632424043</v>
       </c>
       <c r="F6" t="n">
-        <v>136832.8218235179</v>
+        <v>137220.4632424043</v>
       </c>
       <c r="G6" t="n">
-        <v>132881.8214966898</v>
+        <v>133290.3946691329</v>
       </c>
       <c r="H6" t="n">
-        <v>142610.8644708568</v>
+        <v>143019.4376433001</v>
       </c>
       <c r="I6" t="n">
-        <v>142610.8644708568</v>
+        <v>143019.4376433001</v>
       </c>
       <c r="J6" t="n">
-        <v>88838.35358064735</v>
+        <v>89246.92675309062</v>
       </c>
       <c r="K6" t="n">
-        <v>142610.8644708568</v>
+        <v>143019.4376433001</v>
       </c>
       <c r="L6" t="n">
-        <v>142610.8644708569</v>
+        <v>143019.4376433001</v>
       </c>
       <c r="M6" t="n">
-        <v>142610.8644708568</v>
+        <v>143019.4376433001</v>
       </c>
       <c r="N6" t="n">
-        <v>142610.8644708568</v>
+        <v>143019.4376433001</v>
       </c>
       <c r="O6" t="n">
-        <v>136832.8218235179</v>
+        <v>137220.4632424043</v>
       </c>
       <c r="P6" t="n">
-        <v>136832.8218235179</v>
+        <v>137220.4632424043</v>
       </c>
     </row>
   </sheetData>
@@ -34702,10 +34702,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,13 +35021,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35419,10 +35419,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,13 +35501,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35975,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,10 +36677,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,13 +37789,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37874,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,10 +38108,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>977891.1687121931</v>
+        <v>978675.314650222</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X2" t="n">
         <v>205.5178444382804</v>
@@ -741,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.880459683822278</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I5" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>24.5537323853639</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.16030022554292</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1451,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>122.9861200411183</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.172609644471923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>205.5178444382804</v>
@@ -1664,7 +1666,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>143.1098930513363</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,13 +1703,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>155.1371722699136</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1886,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
@@ -1904,13 +1906,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>14.13664997623546</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>62.2924444867011</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2400,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>50.05769526855308</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>41.1479660174065</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,22 +2517,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>128.7503202017071</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,13 +2690,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>51.84843584571486</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2962,55 +2964,55 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3035,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.809496073036132</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>45.76937707216953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>148.5029190010153</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3515,7 +3517,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3585,19 +3587,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>16.43276535303238</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3645,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>70.52904586619735</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3831,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>17.62610975548109</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3977,73 +3979,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="G44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.91814281012252</v>
+        <v>26.96828715292245</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
         <v>16.44142755506243</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>257.9494035700918</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>257.9494035700918</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>111.4148455969768</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>111.4148455969768</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>137.7041268545529</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4544,34 +4546,34 @@
         <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F5" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G5" t="n">
         <v>199.2900309704538</v>
       </c>
       <c r="H5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4604,7 +4606,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
         <v>614.4775954922324</v>
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4674,22 +4676,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U6" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V6" t="n">
-        <v>339.8907214957869</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4835,19 +4837,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4892,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>37.81546818692397</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.81546818692397</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>645.6008794760112</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C12" t="n">
-        <v>471.1478501948842</v>
+        <v>345.09272902505</v>
       </c>
       <c r="D12" t="n">
-        <v>322.2134405336329</v>
+        <v>345.09272902505</v>
       </c>
       <c r="E12" t="n">
-        <v>162.9759855281775</v>
+        <v>345.09272902505</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.09272902505</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
         <v>639.4279001397708</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y12" t="n">
-        <v>813.8162164960793</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5288,7 +5290,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5300,16 +5302,16 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
         <v>16.44142755506243</v>
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>446.2622584721643</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="C15" t="n">
-        <v>446.2622584721643</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="D15" t="n">
-        <v>446.2622584721643</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5364,16 +5366,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5400,7 +5402,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5534,28 +5536,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V17" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="W17" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="W17" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M18" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N18" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,19 +5618,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
         <v>19.28114311021272</v>
@@ -5701,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>761.6974622895962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
         <v>31.35113235729608</v>
@@ -5780,22 +5782,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>592.2056662008901</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C21" t="n">
-        <v>417.752636919763</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D21" t="n">
-        <v>268.8182272585117</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E21" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>799.965964965844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>592.2056662008901</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.84447166430675</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C24" t="n">
-        <v>69.84447166430675</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="D24" t="n">
-        <v>69.84447166430675</v>
+        <v>506.1017161967378</v>
       </c>
       <c r="E24" t="n">
-        <v>69.84447166430675</v>
+        <v>346.8642611912823</v>
       </c>
       <c r="F24" t="n">
-        <v>69.84447166430675</v>
+        <v>200.3297032181673</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>61.59887780078279</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>61.59887780078279</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.84447166430675</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="25">
@@ -6163,19 +6165,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
+        <v>383.2428491569326</v>
+      </c>
+      <c r="N27" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N27" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>660.701031422288</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="28">
@@ -6403,22 +6405,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6440,19 +6442,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6497,13 +6499,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>185.7765687753331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>718.7806050553886</v>
+      </c>
+      <c r="C32" t="n">
         <v>475.3318284112885</v>
       </c>
-      <c r="C32" t="n">
-        <v>231.8830517671884</v>
-      </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
         <v>231.8830517671884</v>
@@ -6725,22 +6727,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W32" t="n">
-        <v>962.2293816994886</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X32" t="n">
-        <v>962.2293816994886</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y32" t="n">
         <v>718.7806050553886</v>
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>640.636862475431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>466.183833194304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7154,22 +7156,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>343.4227147053767</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C39" t="n">
-        <v>168.9696854242497</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>447.97144466011</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>288.7339896546545</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
         <v>20.03527576299844</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7293,10 +7295,10 @@
         <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>719.3983504903987</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>511.6380517254448</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="40">
@@ -7354,19 +7356,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7394,16 +7396,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,46 +7496,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M42" t="n">
-        <v>232.5025681519757</v>
-      </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>599.8443290969091</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7658,7 +7660,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7691,7 +7693,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>453.1980020898613</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>278.7449728087344</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7737,10 +7739,10 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>619.8847831118876</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V45" t="n">
-        <v>412.2910008509983</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W45" t="n">
-        <v>204.697218590109</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X45" t="n">
-        <v>204.697218590109</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y45" t="n">
-        <v>191.6485894889752</v>
+        <v>621.4133391099294</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8538,10 +8540,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8778,10 +8780,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
-        <v>155.3219763666824</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8936,10 +8938,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9012,10 +9014,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,10 +10205,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,10 +10442,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,10 +11308,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11385,13 +11387,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>344.1125915454646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X2" t="n">
         <v>164.2132562401886</v>
@@ -22629,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>108.3549845526742</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>85.63262347080878</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I5" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22878,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>87.68171185113256</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>85.4677721317848</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23075,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>158.68143044351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>361.5735414379376</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23326,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23339,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>14.35739712209235</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>197.5100861328324</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.99065141955279</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>17.57800512585095</v>
@@ -23552,7 +23554,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>14.53518740406463</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23589,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>50.54552350739075</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23774,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
@@ -23792,13 +23794,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>191.5849729979769</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24020,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>152.3965336736319</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>143.4805407167764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24268,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>87.28582189465754</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>48.24866683400857</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24491,16 +24493,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>306.5685030994106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>131.1259181763289</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>16.31889219167681</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24643,7 +24645,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>110.9575212988316</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>85.49508131749577</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,22 +24809,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24923,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24965,10 +24967,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>207.2105735132092</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>159.9133187051348</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25172,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.03026464885201</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25281,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25394,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25403,7 +25405,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>214.9666412263055</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25473,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>128.6364470403515</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25533,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>135.2439393372801</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910244</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25719,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>119.7174074077296</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>85.67090042127307</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25865,19 +25867,19 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>192.7645529671819</v>
+        <v>178.7144086243819</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402281.986679076</v>
+        <v>402281.9866790762</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402281.9866790759</v>
+        <v>402281.986679076</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402281.9866790759</v>
+        <v>402281.986679076</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423709.7149548979</v>
+        <v>423709.7149548978</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548978</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="14">
@@ -26329,16 +26331,16 @@
         <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="I2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="J2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="K2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="K2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="L2" t="n">
         <v>157852.6389047657</v>
@@ -26439,7 +26441,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34719.10666071447</v>
+        <v>34719.1066607145</v>
       </c>
       <c r="C6" t="n">
         <v>103592.8632424043</v>
@@ -26534,7 +26536,7 @@
         <v>137220.4632424043</v>
       </c>
       <c r="G6" t="n">
-        <v>133290.3946691329</v>
+        <v>133290.394669133</v>
       </c>
       <c r="H6" t="n">
         <v>143019.4376433001</v>
@@ -26543,7 +26545,7 @@
         <v>143019.4376433001</v>
       </c>
       <c r="J6" t="n">
-        <v>89246.92675309062</v>
+        <v>89246.92675309072</v>
       </c>
       <c r="K6" t="n">
         <v>143019.4376433001</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35258,10 +35260,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N9" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35498,10 +35500,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,10 +35658,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35732,10 +35734,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>161.1784674257276</v>
-      </c>
-      <c r="M18" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,10 +36925,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,10 +37162,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,10 +38028,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38105,13 +38107,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>197.2140931478448</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>978675.314650222</v>
+        <v>874442.8163867784</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4774956.466128898</v>
+        <v>4774956.466128897</v>
       </c>
     </row>
     <row r="11">
@@ -658,64 +658,64 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.880459683822278</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -910,49 +910,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>114.6969565630368</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>37.36227613112857</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,67 +1135,67 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>105.3690580549763</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>122.9861200411183</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y15" t="n">
-        <v>155.1371722699136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>96.06641246444056</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>190.3453970742849</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.13664997623546</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2362,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>41.1479660174065</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,20 +2791,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.2853856434421</v>
+        <v>208.2638363878125</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.57566235103577</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>89.29749682216328</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3028,31 +3028,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3164,19 +3164,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3207,40 +3207,40 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>97.92298462765953</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,61 +3508,61 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>16.43276535303238</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,58 +3748,58 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>94.84952243388639</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>17.62610975548109</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>162.1980111365649</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>26.96828715292245</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4363,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>257.9494035700918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>257.9494035700918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>111.4148455969768</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>111.4148455969768</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4418,43 +4418,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4509,28 +4509,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
         <v>16.44142755506243</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4570,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4591,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4655,10 +4655,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.44142755506243</v>
+        <v>784.3317048933958</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W7" t="n">
         <v>16.44142755506243</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4813,13 +4813,13 @@
         <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4892,7 +4892,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
         <v>570.0333416264414</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X9" t="n">
-        <v>715.637985778398</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>508.0442035175087</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4989,25 +4989,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5050,10 +5050,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345.09272902505</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C12" t="n">
-        <v>345.09272902505</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D12" t="n">
-        <v>345.09272902505</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>345.09272902505</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>345.09272902505</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5132,40 +5132,40 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X12" t="n">
-        <v>513.308066045118</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>513.308066045118</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
         <v>16.44142755506243</v>
@@ -5293,7 +5293,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5308,22 +5308,22 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,16 +5366,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5390,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="18">
@@ -5600,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>706.3289344460964</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>531.8759051649694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="U23" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="V23" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="W23" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W23" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>506.1017161967378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>346.8642611912823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>200.3297032181673</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>61.59887780078279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>61.59887780078279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>655.0361258579891</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6165,13 +6165,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6247,16 +6247,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
         <v>749.627473042513</v>
@@ -6265,10 +6265,10 @@
         <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
         <v>506.1786963984129</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>873.8576637710773</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2696759935595</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X30" t="n">
-        <v>75.41817578802664</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y30" t="n">
-        <v>75.41817578802664</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>718.7806050553886</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="33">
@@ -6785,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6803,25 +6803,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.424473941237</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C39" t="n">
-        <v>447.97144466011</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D39" t="n">
-        <v>447.97144466011</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E39" t="n">
-        <v>288.7339896546545</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>272.1352367728036</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,10 +7259,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="X39" t="n">
-        <v>790.6398109613051</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.6398109613051</v>
+        <v>894.3028637799077</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7423,10 +7423,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>625.0942498879402</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E42" t="n">
-        <v>238.668476211275</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F42" t="n">
-        <v>238.668476211275</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="43">
@@ -7602,7 +7602,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>453.1980020898613</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="C45" t="n">
-        <v>278.7449728087344</v>
+        <v>450.6412206068132</v>
       </c>
       <c r="D45" t="n">
-        <v>129.8105631474831</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>621.4133391099294</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="46">
@@ -7845,10 +7845,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -8066,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8303,13 +8303,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,10 +8540,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8698,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8780,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8941,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,19 +9014,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22603,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361757</v>
+        <v>168.2208513361756</v>
       </c>
       <c r="X2" t="n">
         <v>164.2132562401886</v>
@@ -22631,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3549845526742</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="5">
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22831,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>338.5801012383814</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,19 +22865,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>85.4677721317848</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3204196461758</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029174</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,19 +23023,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,22 +23068,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23153,10 +23153,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>100.4039271485011</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>348.5708004529262</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>132.9581318332687</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>14.35739712209235</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23548,13 +23548,13 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.54552350739075</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>297.5105822931005</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>75.61675863939726</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>32.75045248984648</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>152.3965336736319</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24065,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,10 +24104,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>70.26853576158751</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296654</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>48.24866683400857</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24405,16 +24405,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>179.7131144384051</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.1259181763289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24575,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,13 +24733,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126115</v>
+        <v>177.9741022682411</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.9575212988316</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24812,10 +24812,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>136.6438852588115</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24916,31 +24916,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>189.2921341996816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="33">
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>80.77591565244738</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>74.78551436065621</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25286,19 +25286,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,16 +25472,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>128.6364470403515</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>102.6264222904166</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25687,7 +25687,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>71.68366121598095</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>119.7174074077296</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25842,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,10 +25912,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>318.0899692773253</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4.335172513302439</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,13 +25955,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.7144086243819</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402281.9866790762</v>
+        <v>402281.986679076</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402281.9866790762</v>
+        <v>402281.986679076</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423709.7149548978</v>
+        <v>423709.714954898</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423709.714954898</v>
+        <v>423709.7149548978</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423709.7149548979</v>
+        <v>423709.714954898</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423709.7149548978</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423709.7149548981</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402281.986679076</v>
+        <v>402281.9866790759</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402281.986679076</v>
+        <v>402281.9866790759</v>
       </c>
     </row>
   </sheetData>
@@ -26328,16 +26328,16 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="H2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="H2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="I2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="J2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047657</v>
@@ -26349,7 +26349,7 @@
         <v>157852.6389047658</v>
       </c>
       <c r="N2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="O2" t="n">
         <v>149869.759743185</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34719.1066607145</v>
+        <v>22080.94450585399</v>
       </c>
       <c r="C6" t="n">
-        <v>103592.8632424043</v>
+        <v>90954.70108754386</v>
       </c>
       <c r="D6" t="n">
-        <v>103592.8632424043</v>
+        <v>90954.7010875438</v>
       </c>
       <c r="E6" t="n">
-        <v>137220.4632424043</v>
+        <v>124582.3010875438</v>
       </c>
       <c r="F6" t="n">
-        <v>137220.4632424043</v>
+        <v>124582.3010875438</v>
       </c>
       <c r="G6" t="n">
-        <v>133290.394669133</v>
+        <v>121072.3840490926</v>
       </c>
       <c r="H6" t="n">
-        <v>143019.4376433001</v>
+        <v>130801.4270232596</v>
       </c>
       <c r="I6" t="n">
-        <v>143019.4376433001</v>
+        <v>130801.4270232596</v>
       </c>
       <c r="J6" t="n">
-        <v>89246.92675309072</v>
+        <v>77028.9161330502</v>
       </c>
       <c r="K6" t="n">
-        <v>143019.4376433001</v>
+        <v>130801.4270232596</v>
       </c>
       <c r="L6" t="n">
-        <v>143019.4376433001</v>
+        <v>130801.4270232596</v>
       </c>
       <c r="M6" t="n">
-        <v>143019.4376433001</v>
+        <v>130801.4270232597</v>
       </c>
       <c r="N6" t="n">
-        <v>143019.4376433001</v>
+        <v>130801.4270232597</v>
       </c>
       <c r="O6" t="n">
-        <v>137220.4632424043</v>
+        <v>124582.3010875438</v>
       </c>
       <c r="P6" t="n">
-        <v>137220.4632424043</v>
+        <v>124582.3010875438</v>
       </c>
     </row>
   </sheetData>
@@ -34786,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,13 +35023,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35181,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35190,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N9" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35500,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37153,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37627,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
